--- a/data_year/zb/金融业/外资银行资产负债表.xlsx
+++ b/data_year/zb/金融业/外资银行资产负债表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,1301 +588,1133 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.7</v>
-      </c>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1098.3</v>
+        <v>2023.7</v>
       </c>
       <c r="D2" t="n">
-        <v>155.9</v>
+        <v>573.5</v>
       </c>
       <c r="E2" t="n">
-        <v>598.7</v>
+        <v>869.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1068.1</v>
+        <v>2737.2</v>
       </c>
       <c r="G2" t="n">
-        <v>824.4</v>
+        <v>2187.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1094</v>
+        <v>2014.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3846.8</v>
+        <v>3341.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1378.4</v>
+        <v>1280.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1317.8</v>
+        <v>4962.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1077.2</v>
+        <v>1515.2</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>2090.7</v>
+        <v>3630.1</v>
       </c>
       <c r="P2" t="n">
-        <v>37.1</v>
+        <v>245</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.8</v>
+        <v>531.5</v>
       </c>
       <c r="R2" t="n">
-        <v>618.1</v>
+        <v>1004.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2204</v>
+        <v>1212.9</v>
       </c>
       <c r="T2" t="n">
-        <v>6235</v>
+        <v>8236.299999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>3900.2</v>
+        <v>9677.700000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>4.2</v>
+        <v>9.1</v>
       </c>
       <c r="W2" t="n">
-        <v>12390.7</v>
+        <v>19016.2</v>
       </c>
       <c r="X2" t="n">
-        <v>12390.7</v>
+        <v>19016.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>1186.2</v>
+        <v>2272.8</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>1240.3</v>
+        <v>1868.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>641.6</v>
+        <v>999.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.7</v>
+        <v>409</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>2659.9</v>
+        <v>7808.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.1</v>
+      </c>
       <c r="C3" t="n">
-        <v>1309.6</v>
+        <v>2966.5</v>
       </c>
       <c r="D3" t="n">
-        <v>381.2</v>
+        <v>1757.2</v>
       </c>
       <c r="E3" t="n">
-        <v>730.7</v>
+        <v>1323.1</v>
       </c>
       <c r="F3" t="n">
-        <v>1568.7</v>
+        <v>3236.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1102.5</v>
+        <v>2601</v>
       </c>
       <c r="H3" t="n">
-        <v>1302.3</v>
+        <v>2955.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3265.7</v>
+        <v>4148.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1719.4</v>
+        <v>1296.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2071.8</v>
+        <v>5419.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1209.6</v>
+        <v>1622.5</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1886.7</v>
+        <v>5041.8</v>
       </c>
       <c r="P3" t="n">
-        <v>65.8</v>
+        <v>493.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>420.3</v>
+        <v>542</v>
       </c>
       <c r="R3" t="n">
-        <v>885.2</v>
+        <v>1541.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1905.9</v>
+        <v>1617.6</v>
       </c>
       <c r="T3" t="n">
-        <v>6617.1</v>
+        <v>8981.299999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>5335.1</v>
+        <v>12202.2</v>
       </c>
       <c r="V3" t="n">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
       <c r="W3" t="n">
-        <v>13739.2</v>
+        <v>23383.7</v>
       </c>
       <c r="X3" t="n">
-        <v>13739.2</v>
+        <v>23383.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>1348.7</v>
+        <v>2610.7</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>1533.5</v>
+        <v>2414.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>802.8</v>
+        <v>1091.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.9</v>
+        <v>462.2</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>3801.6</v>
+        <v>9787.700000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.2</v>
+      </c>
       <c r="C4" t="n">
-        <v>1415.1</v>
+        <v>3228.5</v>
       </c>
       <c r="D4" t="n">
-        <v>420.4</v>
+        <v>1935.2</v>
       </c>
       <c r="E4" t="n">
-        <v>611.3</v>
+        <v>1192</v>
       </c>
       <c r="F4" t="n">
-        <v>1790.9</v>
+        <v>2082.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1299.6</v>
+        <v>1219.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1407.7</v>
+        <v>3218.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2754.7</v>
+        <v>4082.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1483</v>
+        <v>1612.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2855.4</v>
+        <v>5823</v>
       </c>
       <c r="L4" t="n">
-        <v>1425.8</v>
+        <v>1941.3</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>8.6</v>
+      </c>
       <c r="O4" t="n">
-        <v>2214.2</v>
+        <v>5361.3</v>
       </c>
       <c r="P4" t="n">
-        <v>87.7</v>
+        <v>752.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>412.7</v>
+        <v>817.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1217.3</v>
+        <v>1294.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1279.1</v>
+        <v>2571</v>
       </c>
       <c r="T4" t="n">
-        <v>6332.1</v>
+        <v>10510.2</v>
       </c>
       <c r="U4" t="n">
-        <v>6687.6</v>
+        <v>13072.2</v>
       </c>
       <c r="V4" t="n">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="W4" t="n">
-        <v>14350.8</v>
+        <v>24582.4</v>
       </c>
       <c r="X4" t="n">
-        <v>14350.8</v>
+        <v>24582.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1856.4</v>
+        <v>2912.6</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>1555.5</v>
+        <v>2401.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.2</v>
+        <v>1209.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.8</v>
+        <v>603.2</v>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>5132.1</v>
+        <v>10670.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81</v>
+      </c>
       <c r="C5" t="n">
-        <v>2023.7</v>
+        <v>3083</v>
       </c>
       <c r="D5" t="n">
-        <v>573.5</v>
+        <v>2040</v>
       </c>
       <c r="E5" t="n">
-        <v>869.5</v>
+        <v>1268</v>
       </c>
       <c r="F5" t="n">
-        <v>2737.2</v>
+        <v>1799</v>
       </c>
       <c r="G5" t="n">
-        <v>2187.3</v>
+        <v>849</v>
       </c>
       <c r="H5" t="n">
-        <v>2014.6</v>
+        <v>3073</v>
       </c>
       <c r="I5" t="n">
-        <v>3341.7</v>
+        <v>5268</v>
       </c>
       <c r="J5" t="n">
-        <v>1280.4</v>
+        <v>1128</v>
       </c>
       <c r="K5" t="n">
-        <v>4962.5</v>
+        <v>7193</v>
       </c>
       <c r="L5" t="n">
-        <v>1515.2</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+        <v>1586</v>
+      </c>
+      <c r="M5" t="n">
+        <v>127</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
       <c r="O5" t="n">
-        <v>3630.1</v>
+        <v>6313</v>
       </c>
       <c r="P5" t="n">
-        <v>245</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
-        <v>531.5</v>
+        <v>736</v>
       </c>
       <c r="R5" t="n">
-        <v>1004.5</v>
+        <v>1535</v>
       </c>
       <c r="S5" t="n">
-        <v>1212.9</v>
+        <v>1227</v>
       </c>
       <c r="T5" t="n">
-        <v>8236.299999999999</v>
+        <v>10581</v>
       </c>
       <c r="U5" t="n">
-        <v>9677.700000000001</v>
+        <v>15108</v>
       </c>
       <c r="V5" t="n">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>19016.2</v>
+        <v>25805</v>
       </c>
       <c r="X5" t="n">
-        <v>19016.2</v>
+        <v>25805</v>
       </c>
       <c r="Y5" t="n">
-        <v>2272.8</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>2887</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>552</v>
+      </c>
       <c r="AA5" t="n">
-        <v>1868.9</v>
+        <v>2426</v>
       </c>
       <c r="AB5" t="n">
-        <v>999.5</v>
+        <v>1158</v>
       </c>
       <c r="AC5" t="n">
-        <v>409</v>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+        <v>790</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>561</v>
+      </c>
       <c r="AE5" t="n">
-        <v>7808.8</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.1</v>
+        <v>115</v>
       </c>
       <c r="C6" t="n">
-        <v>2966.5</v>
+        <v>3205</v>
       </c>
       <c r="D6" t="n">
-        <v>1757.2</v>
+        <v>1930</v>
       </c>
       <c r="E6" t="n">
-        <v>1323.1</v>
+        <v>1372</v>
       </c>
       <c r="F6" t="n">
-        <v>3236.7</v>
+        <v>2092</v>
       </c>
       <c r="G6" t="n">
-        <v>2601</v>
+        <v>877</v>
       </c>
       <c r="H6" t="n">
-        <v>2955.7</v>
+        <v>3194</v>
       </c>
       <c r="I6" t="n">
-        <v>4148.2</v>
+        <v>6057</v>
       </c>
       <c r="J6" t="n">
-        <v>1296.2</v>
+        <v>1889</v>
       </c>
       <c r="K6" t="n">
-        <v>5419.7</v>
+        <v>7440</v>
       </c>
       <c r="L6" t="n">
-        <v>1622.5</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>1654</v>
+      </c>
+      <c r="M6" t="n">
+        <v>40</v>
+      </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>5041.8</v>
+        <v>5775</v>
       </c>
       <c r="P6" t="n">
-        <v>493.3</v>
+        <v>2125</v>
       </c>
       <c r="Q6" t="n">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="R6" t="n">
-        <v>1541.5</v>
+        <v>2185</v>
       </c>
       <c r="S6" t="n">
-        <v>1617.6</v>
+        <v>1785</v>
       </c>
       <c r="T6" t="n">
-        <v>8981.299999999999</v>
+        <v>11077</v>
       </c>
       <c r="U6" t="n">
-        <v>12202.2</v>
+        <v>15731</v>
       </c>
       <c r="V6" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>23383.7</v>
+        <v>28143</v>
       </c>
       <c r="X6" t="n">
-        <v>23383.7</v>
+        <v>28143</v>
       </c>
       <c r="Y6" t="n">
-        <v>2610.7</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
+        <v>3315</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>512</v>
+      </c>
       <c r="AA6" t="n">
-        <v>2414.6</v>
+        <v>2621</v>
       </c>
       <c r="AB6" t="n">
-        <v>1091.4</v>
+        <v>1249</v>
       </c>
       <c r="AC6" t="n">
-        <v>462.2</v>
-      </c>
-      <c r="AD6" t="inlineStr"/>
+        <v>970</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>424</v>
+      </c>
       <c r="AE6" t="n">
-        <v>9787.700000000001</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>257</v>
       </c>
       <c r="C7" t="n">
-        <v>3228.5</v>
+        <v>2899</v>
       </c>
       <c r="D7" t="n">
-        <v>1935.2</v>
+        <v>1504</v>
       </c>
       <c r="E7" t="n">
-        <v>1192</v>
+        <v>1211</v>
       </c>
       <c r="F7" t="n">
-        <v>2082.1</v>
+        <v>3301</v>
       </c>
       <c r="G7" t="n">
-        <v>1219.6</v>
+        <v>1969</v>
       </c>
       <c r="H7" t="n">
-        <v>3218.4</v>
+        <v>2889</v>
       </c>
       <c r="I7" t="n">
-        <v>4082.5</v>
+        <v>4241</v>
       </c>
       <c r="J7" t="n">
-        <v>1612.5</v>
+        <v>2391</v>
       </c>
       <c r="K7" t="n">
-        <v>5823</v>
+        <v>5959</v>
       </c>
       <c r="L7" t="n">
-        <v>1941.3</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>1744</v>
+      </c>
+      <c r="M7" t="n">
+        <v>105</v>
+      </c>
       <c r="N7" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>5361.3</v>
+        <v>4689</v>
       </c>
       <c r="P7" t="n">
-        <v>752.2</v>
+        <v>2590</v>
       </c>
       <c r="Q7" t="n">
-        <v>817.4</v>
+        <v>1524</v>
       </c>
       <c r="R7" t="n">
-        <v>1294.9</v>
+        <v>1793</v>
       </c>
       <c r="S7" t="n">
-        <v>2571</v>
+        <v>2019</v>
       </c>
       <c r="T7" t="n">
-        <v>10510.2</v>
+        <v>10267</v>
       </c>
       <c r="U7" t="n">
-        <v>13072.2</v>
+        <v>14593</v>
       </c>
       <c r="V7" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>24582.4</v>
+        <v>27684</v>
       </c>
       <c r="X7" t="n">
-        <v>24582.4</v>
+        <v>27684</v>
       </c>
       <c r="Y7" t="n">
-        <v>2912.6</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
+        <v>3751</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1315</v>
+      </c>
       <c r="AA7" t="n">
-        <v>2401.5</v>
+        <v>2774</v>
       </c>
       <c r="AB7" t="n">
-        <v>1209.5</v>
+        <v>1563</v>
       </c>
       <c r="AC7" t="n">
-        <v>603.2</v>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+        <v>980</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>605</v>
+      </c>
       <c r="AE7" t="n">
-        <v>10670.7</v>
+        <v>11214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>183.794421486</v>
       </c>
       <c r="C8" t="n">
-        <v>3083</v>
+        <v>4059.8723259274</v>
       </c>
       <c r="D8" t="n">
-        <v>2040</v>
+        <v>1310.27847599</v>
       </c>
       <c r="E8" t="n">
-        <v>1268</v>
+        <v>1632.8489547691</v>
       </c>
       <c r="F8" t="n">
-        <v>1799</v>
+        <v>5305.1918930257</v>
       </c>
       <c r="G8" t="n">
-        <v>849</v>
+        <v>3809.4616836943</v>
       </c>
       <c r="H8" t="n">
-        <v>3073</v>
+        <v>4051.101807943</v>
       </c>
       <c r="I8" t="n">
-        <v>5268</v>
+        <v>3247.4418843648</v>
       </c>
       <c r="J8" t="n">
-        <v>1128</v>
+        <v>2070.8798737179</v>
       </c>
       <c r="K8" t="n">
-        <v>7193</v>
+        <v>6995.6798456705</v>
       </c>
       <c r="L8" t="n">
-        <v>1586</v>
-      </c>
-      <c r="M8" t="n">
-        <v>127</v>
-      </c>
+        <v>1760.6099700241</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>167.7957150224</v>
       </c>
       <c r="O8" t="n">
-        <v>6313</v>
+        <v>5697.525284351</v>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>2738.2549434967</v>
       </c>
       <c r="Q8" t="n">
-        <v>736</v>
+        <v>1240.8490415598</v>
       </c>
       <c r="R8" t="n">
-        <v>1535</v>
+        <v>1958.0168215542</v>
       </c>
       <c r="S8" t="n">
-        <v>1227</v>
+        <v>2610.9239428496</v>
       </c>
       <c r="T8" t="n">
-        <v>10581</v>
+        <v>10254.4852115987</v>
       </c>
       <c r="U8" t="n">
-        <v>15108</v>
+        <v>17153.1274967169</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>8.7705179844</v>
       </c>
       <c r="W8" t="n">
-        <v>25805</v>
+        <v>31669.7343650493</v>
       </c>
       <c r="X8" t="n">
-        <v>25805</v>
+        <v>31669.7343650493</v>
       </c>
       <c r="Y8" t="n">
-        <v>2887</v>
+        <v>4425.1157464256</v>
       </c>
       <c r="Z8" t="n">
-        <v>552</v>
+        <v>1027.3912581204</v>
       </c>
       <c r="AA8" t="n">
-        <v>2426</v>
+        <v>3477.5153798239</v>
       </c>
       <c r="AB8" t="n">
-        <v>1158</v>
+        <v>1844.6664250548</v>
       </c>
       <c r="AC8" t="n">
-        <v>790</v>
+        <v>1081.2382207091</v>
       </c>
       <c r="AD8" t="n">
-        <v>561</v>
+        <v>944.5380488069</v>
       </c>
       <c r="AE8" t="n">
-        <v>12120</v>
+        <v>12731.0740680861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115</v>
+        <v>226.2261739129</v>
       </c>
       <c r="C9" t="n">
-        <v>3205</v>
+        <v>3765.5042264264</v>
       </c>
       <c r="D9" t="n">
-        <v>1930</v>
+        <v>1270.3291979795</v>
       </c>
       <c r="E9" t="n">
-        <v>1372</v>
+        <v>1611.8393458155</v>
       </c>
       <c r="F9" t="n">
-        <v>2092</v>
+        <v>13343.9845602892</v>
       </c>
       <c r="G9" t="n">
-        <v>877</v>
+        <v>11812.4998257642</v>
       </c>
       <c r="H9" t="n">
-        <v>3194</v>
+        <v>3758.1269300408</v>
       </c>
       <c r="I9" t="n">
-        <v>6057</v>
+        <v>4883.5549690076</v>
       </c>
       <c r="J9" t="n">
-        <v>1889</v>
+        <v>2221.643702023</v>
       </c>
       <c r="K9" t="n">
-        <v>7440</v>
+        <v>7645.0362423982</v>
       </c>
       <c r="L9" t="n">
-        <v>1654</v>
-      </c>
-      <c r="M9" t="n">
-        <v>40</v>
-      </c>
+        <v>1835.1604377357</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>284.37369</v>
       </c>
       <c r="O9" t="n">
-        <v>5775</v>
+        <v>6505.2678550909</v>
       </c>
       <c r="P9" t="n">
-        <v>2125</v>
+        <v>3693.6158660401</v>
       </c>
       <c r="Q9" t="n">
-        <v>709</v>
+        <v>941.3413036580999</v>
       </c>
       <c r="R9" t="n">
-        <v>2185</v>
+        <v>2229.9034758482</v>
       </c>
       <c r="S9" t="n">
-        <v>1785</v>
+        <v>2611.6828282985</v>
       </c>
       <c r="T9" t="n">
-        <v>11077</v>
+        <v>11020.4685295211</v>
       </c>
       <c r="U9" t="n">
-        <v>15731</v>
+        <v>18356.5628778758</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>7.3772963856</v>
       </c>
       <c r="W9" t="n">
-        <v>28143</v>
+        <v>42482.8868407778</v>
       </c>
       <c r="X9" t="n">
-        <v>28143</v>
+        <v>42482.8868407778</v>
       </c>
       <c r="Y9" t="n">
-        <v>3315</v>
+        <v>4886.3839072252</v>
       </c>
       <c r="Z9" t="n">
-        <v>512</v>
+        <v>772.4204454036</v>
       </c>
       <c r="AA9" t="n">
-        <v>2621</v>
+        <v>3372.5264819809</v>
       </c>
       <c r="AB9" t="n">
-        <v>1249</v>
+        <v>1760.6871361654</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>1233.9833600639</v>
       </c>
       <c r="AD9" t="n">
-        <v>424</v>
+        <v>1182.287048292</v>
       </c>
       <c r="AE9" t="n">
-        <v>12685</v>
+        <v>13801.7493476029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257</v>
+        <v>549</v>
       </c>
       <c r="C10" t="n">
-        <v>2899</v>
+        <v>3287</v>
       </c>
       <c r="D10" t="n">
-        <v>1504</v>
+        <v>1298</v>
       </c>
       <c r="E10" t="n">
-        <v>1211</v>
+        <v>1586</v>
       </c>
       <c r="F10" t="n">
-        <v>3301</v>
+        <v>14858</v>
       </c>
       <c r="G10" t="n">
-        <v>1969</v>
+        <v>13066</v>
       </c>
       <c r="H10" t="n">
-        <v>2889</v>
+        <v>3281</v>
       </c>
       <c r="I10" t="n">
-        <v>4241</v>
+        <v>4904</v>
       </c>
       <c r="J10" t="n">
-        <v>2391</v>
+        <v>2452</v>
       </c>
       <c r="K10" t="n">
-        <v>5959</v>
+        <v>7565</v>
       </c>
       <c r="L10" t="n">
-        <v>1744</v>
-      </c>
-      <c r="M10" t="n">
-        <v>105</v>
-      </c>
+        <v>1878</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="O10" t="n">
-        <v>4689</v>
+        <v>5844</v>
       </c>
       <c r="P10" t="n">
-        <v>2590</v>
+        <v>3745</v>
       </c>
       <c r="Q10" t="n">
-        <v>1524</v>
+        <v>1116</v>
       </c>
       <c r="R10" t="n">
-        <v>1793</v>
+        <v>2681</v>
       </c>
       <c r="S10" t="n">
-        <v>2019</v>
+        <v>2342</v>
       </c>
       <c r="T10" t="n">
-        <v>10267</v>
+        <v>11649</v>
       </c>
       <c r="U10" t="n">
-        <v>14593</v>
+        <v>18386</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W10" t="n">
-        <v>27684</v>
+        <v>44177</v>
       </c>
       <c r="X10" t="n">
-        <v>27684</v>
+        <v>44177</v>
       </c>
       <c r="Y10" t="n">
-        <v>3751</v>
+        <v>4837</v>
       </c>
       <c r="Z10" t="n">
-        <v>1315</v>
+        <v>1004</v>
       </c>
       <c r="AA10" t="n">
-        <v>2774</v>
+        <v>3461</v>
       </c>
       <c r="AB10" t="n">
-        <v>1563</v>
+        <v>1876</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>1452</v>
       </c>
       <c r="AD10" t="n">
-        <v>605</v>
+        <v>1225</v>
       </c>
       <c r="AE10" t="n">
-        <v>11214</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.794421486</v>
+        <v>858.7479120896</v>
       </c>
       <c r="C11" t="n">
-        <v>4059.8723259274</v>
+        <v>3251.5623261693</v>
       </c>
       <c r="D11" t="n">
-        <v>1310.27847599</v>
+        <v>1338.0783549408</v>
       </c>
       <c r="E11" t="n">
-        <v>1632.8489547691</v>
+        <v>2007.005815192</v>
       </c>
       <c r="F11" t="n">
-        <v>5305.1918930257</v>
+        <v>14597.1671035325</v>
       </c>
       <c r="G11" t="n">
-        <v>3809.4616836943</v>
+        <v>12684.3023695526</v>
       </c>
       <c r="H11" t="n">
-        <v>4051.101807943</v>
+        <v>3247.0217370514</v>
       </c>
       <c r="I11" t="n">
-        <v>3247.4418843648</v>
+        <v>4041.1818987825</v>
       </c>
       <c r="J11" t="n">
-        <v>2070.8798737179</v>
+        <v>2949.8372362522</v>
       </c>
       <c r="K11" t="n">
-        <v>6995.6798456705</v>
+        <v>7705.693813704</v>
       </c>
       <c r="L11" t="n">
-        <v>1760.6099700241</v>
+        <v>1978.6823640614</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>167.7957150224</v>
+        <v>183.4448367677</v>
       </c>
       <c r="O11" t="n">
-        <v>5697.525284351</v>
+        <v>5186.3490545253</v>
       </c>
       <c r="P11" t="n">
-        <v>2738.2549434967</v>
+        <v>3662.3926816486</v>
       </c>
       <c r="Q11" t="n">
-        <v>1240.8490415598</v>
+        <v>1263.5874226014</v>
       </c>
       <c r="R11" t="n">
-        <v>1958.0168215542</v>
+        <v>3387.6499661199</v>
       </c>
       <c r="S11" t="n">
-        <v>2610.9239428496</v>
+        <v>2662.668919491</v>
       </c>
       <c r="T11" t="n">
-        <v>10254.4852115987</v>
+        <v>12266.4807508169</v>
       </c>
       <c r="U11" t="n">
-        <v>17153.1274967169</v>
+        <v>19485.6672432994</v>
       </c>
       <c r="V11" t="n">
-        <v>8.7705179844</v>
+        <v>4.5405891179</v>
       </c>
       <c r="W11" t="n">
-        <v>31669.7343650493</v>
+        <v>45071.1477006255</v>
       </c>
       <c r="X11" t="n">
-        <v>31669.7343650493</v>
+        <v>45071.1477006255</v>
       </c>
       <c r="Y11" t="n">
-        <v>4425.1157464256</v>
+        <v>5346.5451073358</v>
       </c>
       <c r="Z11" t="n">
-        <v>1027.3912581204</v>
+        <v>1140.0136011815</v>
       </c>
       <c r="AA11" t="n">
-        <v>3477.5153798239</v>
+        <v>3952.5341995659</v>
       </c>
       <c r="AB11" t="n">
-        <v>1844.6664250548</v>
+        <v>1945.5283843739</v>
       </c>
       <c r="AC11" t="n">
-        <v>1081.2382207091</v>
+        <v>1682.5733155407</v>
       </c>
       <c r="AD11" t="n">
-        <v>944.5380488069</v>
+        <v>1142.8157677529</v>
       </c>
       <c r="AE11" t="n">
-        <v>12731.0740680861</v>
+        <v>14390.3172759806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226.2261739129</v>
+        <v>845.4163855681001</v>
       </c>
       <c r="C12" t="n">
-        <v>3765.5042264264</v>
+        <v>3202.5107643229</v>
       </c>
       <c r="D12" t="n">
-        <v>1270.3291979795</v>
+        <v>1399.4488672068</v>
       </c>
       <c r="E12" t="n">
-        <v>1611.8393458155</v>
+        <v>1758.6606007184</v>
       </c>
       <c r="F12" t="n">
-        <v>13343.9845602892</v>
+        <v>14563.9898357408</v>
       </c>
       <c r="G12" t="n">
-        <v>11812.4998257642</v>
+        <v>12452.4730713693</v>
       </c>
       <c r="H12" t="n">
-        <v>3758.1269300408</v>
+        <v>3199.277916586</v>
       </c>
       <c r="I12" t="n">
-        <v>4883.5549690076</v>
+        <v>4341.5671409854</v>
       </c>
       <c r="J12" t="n">
-        <v>2221.643702023</v>
+        <v>3091.2645287406</v>
       </c>
       <c r="K12" t="n">
-        <v>7645.0362423982</v>
+        <v>8361.5168865174</v>
       </c>
       <c r="L12" t="n">
-        <v>1835.1604377357</v>
+        <v>1999.0894007843</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>284.37369</v>
+        <v>421.8044998561</v>
       </c>
       <c r="O12" t="n">
-        <v>6505.2678550909</v>
+        <v>4738.5215861621</v>
       </c>
       <c r="P12" t="n">
-        <v>3693.6158660401</v>
+        <v>4395.4043581535</v>
       </c>
       <c r="Q12" t="n">
-        <v>941.3413036580999</v>
+        <v>1402.921984371</v>
       </c>
       <c r="R12" t="n">
-        <v>2229.9034758482</v>
+        <v>4806.1697731237</v>
       </c>
       <c r="S12" t="n">
-        <v>2611.6828282985</v>
+        <v>2256.7274638205</v>
       </c>
       <c r="T12" t="n">
-        <v>11020.4685295211</v>
+        <v>13298.7197270397</v>
       </c>
       <c r="U12" t="n">
-        <v>18356.5628778758</v>
+        <v>22026.0490240397</v>
       </c>
       <c r="V12" t="n">
-        <v>7.3772963856</v>
+        <v>3.2328477369</v>
       </c>
       <c r="W12" t="n">
-        <v>42482.8868407778</v>
+        <v>47857.5657351659</v>
       </c>
       <c r="X12" t="n">
-        <v>42482.8868407778</v>
+        <v>47857.5657351659</v>
       </c>
       <c r="Y12" t="n">
-        <v>4886.3839072252</v>
+        <v>5743.604229873</v>
       </c>
       <c r="Z12" t="n">
-        <v>772.4204454036</v>
+        <v>1204.7977616492</v>
       </c>
       <c r="AA12" t="n">
-        <v>3372.5264819809</v>
+        <v>4084.12487326</v>
       </c>
       <c r="AB12" t="n">
-        <v>1760.6871361654</v>
+        <v>2325.4642725416</v>
       </c>
       <c r="AC12" t="n">
-        <v>1233.9833600639</v>
+        <v>1872.5019262541</v>
       </c>
       <c r="AD12" t="n">
-        <v>1182.287048292</v>
+        <v>2437.3541671825</v>
       </c>
       <c r="AE12" t="n">
-        <v>13801.7493476029</v>
+        <v>15504.5699835972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549</v>
+        <v>884.0176234119</v>
       </c>
       <c r="C13" t="n">
-        <v>3287</v>
+        <v>2577.5593114615</v>
       </c>
       <c r="D13" t="n">
-        <v>1298</v>
+        <v>1383.4583985556</v>
       </c>
       <c r="E13" t="n">
-        <v>1586</v>
+        <v>1543.6842619885</v>
       </c>
       <c r="F13" t="n">
-        <v>14858</v>
+        <v>14764.624597747</v>
       </c>
       <c r="G13" t="n">
-        <v>13066</v>
+        <v>12519.1966324299</v>
       </c>
       <c r="H13" t="n">
-        <v>3281</v>
+        <v>2574.8000765829</v>
       </c>
       <c r="I13" t="n">
-        <v>4904</v>
+        <v>4065.7594866029</v>
       </c>
       <c r="J13" t="n">
-        <v>2452</v>
+        <v>3766.7129814292</v>
       </c>
       <c r="K13" t="n">
-        <v>7565</v>
+        <v>8781.4879020916</v>
       </c>
       <c r="L13" t="n">
-        <v>1878</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>2019.0756396451</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.00293062</v>
+      </c>
       <c r="N13" t="n">
-        <v>144</v>
+        <v>330.9856076629</v>
       </c>
       <c r="O13" t="n">
-        <v>5844</v>
+        <v>4539.9121077463</v>
       </c>
       <c r="P13" t="n">
-        <v>3745</v>
+        <v>4781.0096667673</v>
       </c>
       <c r="Q13" t="n">
-        <v>1116</v>
+        <v>2066.7899568926</v>
       </c>
       <c r="R13" t="n">
-        <v>2681</v>
+        <v>4421.2390675482</v>
       </c>
       <c r="S13" t="n">
-        <v>2342</v>
+        <v>2734.5294198112</v>
       </c>
       <c r="T13" t="n">
-        <v>11649</v>
+        <v>13267.2419746346</v>
       </c>
       <c r="U13" t="n">
-        <v>18386</v>
+        <v>21225.3508455435</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>2.7592348786</v>
       </c>
       <c r="W13" t="n">
-        <v>44177</v>
+        <v>48091.1331773171</v>
       </c>
       <c r="X13" t="n">
-        <v>44177</v>
+        <v>48091.1331773171</v>
       </c>
       <c r="Y13" t="n">
-        <v>4837</v>
+        <v>5515.803795195</v>
       </c>
       <c r="Z13" t="n">
-        <v>1004</v>
+        <v>1858.5294574931</v>
       </c>
       <c r="AA13" t="n">
-        <v>3461</v>
+        <v>4192.4875884777</v>
       </c>
       <c r="AB13" t="n">
-        <v>1876</v>
+        <v>2648.8033264892</v>
       </c>
       <c r="AC13" t="n">
-        <v>1452</v>
+        <v>2212.2585046801</v>
       </c>
       <c r="AD13" t="n">
-        <v>1225</v>
+        <v>1352.1131612236</v>
       </c>
       <c r="AE13" t="n">
-        <v>13700</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>858.7479120896</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3251.5623261693</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1338.0783549408</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2007.005815192</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14597.1671035325</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12684.3023695526</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3247.0217370514</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4041.1818987825</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2949.8372362522</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7705.693813704</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1978.6823640614</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>183.4448367677</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5186.3490545253</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3662.3926816486</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1263.5874226014</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3387.6499661199</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2662.668919491</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12266.4807508169</v>
-      </c>
-      <c r="U14" t="n">
-        <v>19485.6672432994</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4.5405891179</v>
-      </c>
-      <c r="W14" t="n">
-        <v>45071.1477006255</v>
-      </c>
-      <c r="X14" t="n">
-        <v>45071.1477006255</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5346.5451073358</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1140.0136011815</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3952.5341995659</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1945.5283843739</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1682.5733155407</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1142.8157677529</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14390.3172759806</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>845.4163855681001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3202.5107643229</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1399.4488672068</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1758.6606007184</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14563.9898357408</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12452.4730713693</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3199.277916586</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4341.5671409854</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3091.2645287406</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8361.5168865174</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1999.0894007843</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>421.8044998561</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4738.5215861621</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4395.4043581535</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1402.921984371</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4806.1697731237</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2256.7274638205</v>
-      </c>
-      <c r="T15" t="n">
-        <v>13298.7197270397</v>
-      </c>
-      <c r="U15" t="n">
-        <v>22026.0490240397</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3.2328477369</v>
-      </c>
-      <c r="W15" t="n">
-        <v>47857.5657351659</v>
-      </c>
-      <c r="X15" t="n">
-        <v>47857.5657351659</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5743.604229873</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1204.7977616492</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4084.12487326</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2325.4642725416</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1872.5019262541</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2437.3541671825</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15504.5699835972</v>
+        <v>15680.7500958422</v>
       </c>
     </row>
   </sheetData>
